--- a/biology/Médecine/Syndrome_de_Roberts/Syndrome_de_Roberts.xlsx
+++ b/biology/Médecine/Syndrome_de_Roberts/Syndrome_de_Roberts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Roberts ou syndrome pseudothalidomide se caractérise par des malformations sévères des membres pouvant aller jusqu'à une phocomélie et une croissance insuffisante de nouveau-né. Les membres supérieurs sont plus fréquemment atteints que les membres inférieurs. Les autres anomalies des membres comprennent une oligodactylie avec une hypoplasie ou une aplasie des pouces, une syndactylie, une clinodactylie et des contractures des coudes et des genoux.
@@ -513,9 +525,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Miriam Gordillo, Hugo H Vega, Ethylin Wang Jabs, Roberts Syndrome In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Miriam Gordillo, Hugo H Vega, Ethylin Wang Jabs, Roberts Syndrome In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 
  Portail de la médecine                     </t>
         </is>
       </c>
